--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Generation of hazardous waste per person, kilogram / person</t>
+  </si>
+  <si>
+    <t>1 754,6</t>
   </si>
 </sst>
 </file>
@@ -66,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +146,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +209,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -245,10 +254,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,9 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -571,7 +588,7 @@
     <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -587,7 +604,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -597,7 +614,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -625,8 +642,11 @@
       <c r="I3" s="9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -654,8 +674,11 @@
       <c r="I4" s="14">
         <v>11223.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="19">
+        <v>11545.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -683,8 +706,11 @@
       <c r="I5" s="14">
         <v>6523.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -713,8 +739,11 @@
         <f>I4/I5*1000</f>
         <v>1720.4261516057334</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="17">
+        <v>6636.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -724,7 +753,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -734,7 +763,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -744,7 +773,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -754,7 +783,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -764,7 +793,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -774,7 +803,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -784,7 +813,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -794,7 +823,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -804,7 +833,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -914,26 +943,6 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -260,10 +260,19 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +584,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,25 +665,25 @@
       <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="21">
         <v>136.80000000000001</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="22">
         <v>10455.799999999999</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="22">
         <v>12332.6</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="22">
         <v>12610.3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="22">
         <v>12002.6</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="22">
         <v>11223.2</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>11545.7</v>
       </c>
     </row>
@@ -688,26 +697,26 @@
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="22">
         <v>5895.1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="22">
         <v>6019.5</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="22">
         <v>6140.2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="22">
         <v>6256.7</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="22">
         <v>6389.5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="22">
         <v>6523.5</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>15</v>
+      <c r="J5" s="19">
+        <v>6636.8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,8 +748,8 @@
         <f>I4/I5*1000</f>
         <v>1720.4261516057334</v>
       </c>
-      <c r="J6" s="17">
-        <v>6636.8</v>
+      <c r="J6" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">

--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -61,7 +61,22 @@
     <t>Generation of hazardous waste per person, kilogram / person</t>
   </si>
   <si>
-    <t>1 754,6</t>
+    <t>Нейтралдаштырылган кооптуу калдыктардын үлүшү, пайыз</t>
+  </si>
+  <si>
+    <t>Доля обезвреженных опасных отходов, процентов</t>
+  </si>
+  <si>
+    <t>Percentage of neutralized hazardous waste, percent</t>
+  </si>
+  <si>
+    <t>Көмүлгөн коркунучтуу калдыктардын үлүшү, пайыз</t>
+  </si>
+  <si>
+    <t>Доля захороненных опасных отходов, процентов</t>
+  </si>
+  <si>
+    <t>The share of hazardous waste buried, percent</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -274,6 +289,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -581,11 +599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -597,7 +613,7 @@
     <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -613,7 +629,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -623,7 +639,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -654,125 +670,183 @@
       <c r="J3" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="22">
+        <v>23.205713219453443</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1736.9881219370377</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2008.5013517475004</v>
+      </c>
+      <c r="G4" s="22">
+        <v>2015.4873975098692</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1878.4881446122545</v>
+      </c>
+      <c r="I4" s="22">
+        <f>I5/I6*1000</f>
+        <v>1720.4261516057334</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1754.6</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1673.3508218102056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D5" s="21">
         <v>136.80000000000001</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E5" s="22">
         <v>10455.799999999999</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F5" s="22">
         <v>12332.6</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G5" s="22">
         <v>12610.3</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H5" s="22">
         <v>12002.6</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I5" s="22">
         <v>11223.2</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J5" s="18">
         <v>11545.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="K5" s="18">
+        <v>11290.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D6" s="22">
         <v>5895.1</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E6" s="22">
         <v>6019.5</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F6" s="22">
         <v>6140.2</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G6" s="22">
         <v>6256.7</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H6" s="22">
         <v>6389.5</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I6" s="22">
         <v>6523.5</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J6" s="19">
         <v>6636.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="16">
-        <v>23.205713219453443</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1736.9881219370377</v>
-      </c>
-      <c r="F6" s="17">
-        <v>2008.5013517475004</v>
-      </c>
-      <c r="G6" s="17">
-        <v>2015.4873975098692</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1878.4881446122545</v>
-      </c>
-      <c r="I6" s="17">
-        <f>I4/I5*1000</f>
-        <v>1720.4261516057334</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="19">
+        <v>6747.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
+        <v>46.7</v>
+      </c>
+      <c r="F7" s="22">
+        <v>32.9</v>
+      </c>
+      <c r="G7" s="22">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H7" s="22">
+        <v>38.9</v>
+      </c>
+      <c r="I7" s="22">
+        <v>53.8</v>
+      </c>
+      <c r="J7" s="19">
+        <v>56.2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -782,7 +856,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -792,7 +866,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -802,7 +876,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -812,7 +886,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -822,7 +896,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -832,7 +906,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -842,7 +916,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -954,6 +1028,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>The share of hazardous waste buried, percent</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +166,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -224,7 +234,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -270,9 +280,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +299,15 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -599,9 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,7 +631,7 @@
     <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -629,7 +647,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -639,7 +657,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -673,8 +691,11 @@
       <c r="K3" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -684,33 +705,37 @@
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>23.205713219453443</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>1736.9881219370377</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>2008.5013517475004</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>2015.4873975098692</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>1878.4881446122545</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <f>I5/I6*1000</f>
         <v>1720.4261516057334</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>1754.6</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>1673.3508218102056</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="23">
+        <f>L5/L6*1000</f>
+        <v>1800.7843583039673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -720,32 +745,35 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>136.80000000000001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>10455.799999999999</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>12332.6</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>12610.3</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>12002.6</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>11223.2</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>11545.7</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>11290.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="24">
+        <v>12673.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -755,32 +783,35 @@
       <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>5895.1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>6019.5</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>6140.2</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>6256.7</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>6389.5</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>6523.5</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>6636.8</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>6747.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="22">
+        <v>7037.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -790,30 +821,35 @@
       <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22">
+      <c r="D7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="21">
         <v>46.7</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>32.9</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>40.200000000000003</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>38.9</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>53.8</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>56.2</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="22">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -823,30 +859,35 @@
       <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17">
+      <c r="D8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
         <v>0.1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0.1</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>0.03</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>0.1</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>0</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -856,7 +897,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -866,7 +907,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -876,7 +917,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -886,7 +927,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -896,7 +937,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -906,7 +947,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -916,7 +957,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>The share of hazardous waste buried, percent</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -89,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +163,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -234,7 +224,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -280,6 +270,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,15 +292,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -615,11 +599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -631,7 +613,7 @@
     <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -647,7 +629,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -657,7 +639,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -691,11 +673,8 @@
       <c r="K3" s="9">
         <v>2021</v>
       </c>
-      <c r="L3" s="9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -705,37 +684,33 @@
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>23.205713219453443</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <v>1736.9881219370377</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <v>2008.5013517475004</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <v>2015.4873975098692</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="22">
         <v>1878.4881446122545</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="22">
         <f>I5/I6*1000</f>
         <v>1720.4261516057334</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <v>1754.6</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="19">
         <v>1673.3508218102056</v>
       </c>
-      <c r="L4" s="23">
-        <f>L5/L6*1000</f>
-        <v>1800.7843583039673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -745,35 +720,32 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>136.80000000000001</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>10455.799999999999</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>12332.6</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <v>12610.3</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="22">
         <v>12002.6</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="22">
         <v>11223.2</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="18">
         <v>11545.7</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="18">
         <v>11290.6</v>
       </c>
-      <c r="L5" s="24">
-        <v>12673.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -783,35 +755,32 @@
       <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>5895.1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="22">
         <v>6019.5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>6140.2</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="22">
         <v>6256.7</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="22">
         <v>6389.5</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="22">
         <v>6523.5</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="19">
         <v>6636.8</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="19">
         <v>6747.3</v>
       </c>
-      <c r="L6" s="22">
-        <v>7037.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -821,35 +790,30 @@
       <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
         <v>46.7</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>32.9</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <v>40.200000000000003</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="22">
         <v>38.9</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="22">
         <v>53.8</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <v>56.2</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="19">
         <v>57</v>
       </c>
-      <c r="L7" s="22">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -859,35 +823,30 @@
       <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17">
         <v>0.1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="17">
         <v>0.1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="17">
         <v>0.03</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="17">
         <v>0.1</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="20">
         <v>0.1</v>
       </c>
-      <c r="L8" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -897,7 +856,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -907,7 +866,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -917,7 +876,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -927,7 +886,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -937,7 +896,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -947,7 +906,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -957,7 +916,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +166,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -234,7 +227,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -298,9 +291,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +608,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +759,7 @@
       <c r="K5" s="17">
         <v>11290.6</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>12673.2</v>
       </c>
     </row>
@@ -859,7 +849,7 @@
       <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="16">

--- a/en/downloads/data-excel/12.4.2.xlsx
+++ b/en/downloads/data-excel/12.4.2.xlsx
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +242,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -299,6 +314,22 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -605,23 +636,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -637,7 +664,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -647,7 +674,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -684,48 +711,54 @@
       <c r="L3" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="M3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="26">
         <v>23.205713219453443</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="26">
         <v>1736.9881219370377</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="26">
         <v>2008.5013517475004</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="26">
         <v>2015.4873975098692</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="26">
         <v>1878.4881446122545</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="26">
         <f>I5/I6*1000</f>
         <v>1720.4261516057334</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="27">
         <v>1754.6</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="28">
         <v>1673.3508218102056</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="29">
         <f>L5/L6*1000</f>
         <v>1800.7843583039673</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="29">
+        <v>1963.9481143272037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -762,8 +795,11 @@
       <c r="L5" s="23">
         <v>12673.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="23">
+        <v>14065.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -800,9 +836,12 @@
       <c r="L6" s="22">
         <v>7037.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="M6" s="22">
+        <v>7161.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -838,8 +877,11 @@
       <c r="L7" s="22">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="22">
+        <v>46.213456944602434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -876,8 +918,11 @@
       <c r="L8" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="19">
+        <v>4.4790126265498803E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -887,7 +932,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -897,7 +942,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -907,7 +952,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -917,7 +962,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -927,7 +972,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -937,7 +982,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -947,7 +992,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
